--- a/get_rif.xlsx
+++ b/get_rif.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">RIF</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">% RETENCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENSAJE</t>
   </si>
   <si>
     <t xml:space="preserve">INTENTOS</t>
@@ -230,10 +227,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.12"/>
@@ -257,16 +254,18 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="n">
+        <v>5524325124</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>233342</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>

--- a/get_rif.xlsx
+++ b/get_rif.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">RIF</t>
   </si>
@@ -37,7 +37,13 @@
     <t xml:space="preserve">% RETENCIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">MENSAJE</t>
+  </si>
+  <si>
     <t xml:space="preserve">INTENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V280529539</t>
   </si>
 </sst>
 </file>
@@ -227,14 +233,15 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.37"/>
   </cols>
   <sheetData>
@@ -254,21 +261,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>5524325124</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="n">
-        <v>233342</v>
+        <v>28052953</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/get_rif.xlsx
+++ b/get_rif.xlsx
@@ -1,64 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Documents\GitHub\Get-RIF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F878E359-AEFD-4050-BBA2-A16CBB2CAAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-27660" yWindow="1200" windowWidth="21600" windowHeight="11175" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>RIF</t>
+  </si>
+  <si>
+    <t>CÉDULA O PASAPORTE</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>DETALLES</t>
+  </si>
+  <si>
+    <t>% RETENCIÓN</t>
+  </si>
+  <si>
+    <t>MENSAJE</t>
+  </si>
+  <si>
+    <t>INTENTOS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
-      <family val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,45 +91,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -176,8 +164,24 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -465,102 +469,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="25.87" customWidth="1" style="3" min="2" max="2"/>
-    <col width="28.12" customWidth="1" style="3" min="3" max="3"/>
-    <col width="33.13" customWidth="1" style="3" min="4" max="4"/>
-    <col width="18.77" customWidth="1" style="3" min="5" max="5"/>
-    <col width="21.37" customWidth="1" style="3" min="6" max="6"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="4">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>RIF</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>CÉDULA O PASAPORTE</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>NOMBRE</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>DETALLES</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>% RETENCIÓN</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>MENSAJE</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>INTENTOS</t>
-        </is>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="4">
-      <c r="A2" s="6" t="n"/>
-      <c r="B2" s="6" t="n">
-        <v>28052953</v>
-      </c>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="4">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>V280529539</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>MARTIN GABRIEL ROJAS ANDRADE</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>-Es agente de retención del IVA</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Ejecución sin errores</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>3</v>
-      </c>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.9840277777777779" bottom="0.9840277777777779" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/get_rif.xlsx
+++ b/get_rif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\OneDrive\Documents\GitHub\Get-RIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F878E359-AEFD-4050-BBA2-A16CBB2CAAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347A2A3-4426-4ABB-9FB9-12308CF263CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27660" yWindow="1200" windowWidth="21600" windowHeight="11175" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+      <selection activeCell="G2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
